--- a/Assets/Excel/Monster.xlsx
+++ b/Assets/Excel/Monster.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AF9C62-E998-4E14-905E-E06581484512}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F898504F-3EBE-4D98-989E-8DF963310B3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="2880" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础怪</t>
   </si>
   <si>
     <t>近战怪</t>
@@ -105,9 +102,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -211,7 +205,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -223,12 +217,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:K11"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -536,25 +524,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.2">
@@ -564,22 +552,22 @@
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>500</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>10</v>
       </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5">
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4">
         <v>40</v>
       </c>
     </row>
@@ -590,28 +578,23 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
-        <f t="shared" ref="C3" si="0">1*C2</f>
+      <c r="C3" s="4">
         <v>500</v>
       </c>
-      <c r="D3" s="6">
-        <v>10</v>
+      <c r="D3" s="4">
+        <v>12</v>
       </c>
       <c r="E3" s="4">
-        <f>1*$E$2</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F3" s="4">
-        <f>1*F2</f>
         <v>1</v>
       </c>
       <c r="G3" s="4">
-        <f>1*G2</f>
-        <v>1</v>
-      </c>
-      <c r="H3" s="6">
-        <f>1*H2</f>
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="H3" s="4">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -621,28 +604,23 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6">
-        <f>1*C2</f>
-        <v>500</v>
-      </c>
-      <c r="D4" s="6">
-        <v>12</v>
+      <c r="C4" s="4">
+        <v>300</v>
+      </c>
+      <c r="D4" s="4">
+        <v>10</v>
       </c>
       <c r="E4" s="4">
-        <f>0.8*E2</f>
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="F4" s="4">
-        <f>1*F2</f>
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="G4" s="4">
-        <f>25*G2</f>
-        <v>25</v>
-      </c>
-      <c r="H4" s="6">
-        <f>INT(1.3*H2)</f>
-        <v>52</v>
+        <v>7</v>
+      </c>
+      <c r="H4" s="4">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -652,28 +630,23 @@
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6">
-        <f>0.6*C2</f>
-        <v>300</v>
-      </c>
-      <c r="D5" s="6">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4">
-        <f>1.5*E2</f>
-        <v>1.5</v>
+      <c r="C5" s="4">
+        <v>50</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
       </c>
       <c r="F5" s="4">
-        <f>1.3*F2</f>
-        <v>1.3</v>
-      </c>
-      <c r="G5" s="4">
-        <f>7*G2</f>
-        <v>7</v>
-      </c>
-      <c r="H5" s="6">
-        <f>INT(0.8*H2)</f>
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -683,26 +656,23 @@
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6">
-        <f>0.1*C2</f>
-        <v>50</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
+      <c r="C6" s="4">
+        <v>1500</v>
+      </c>
+      <c r="D6" s="4">
+        <v>20</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.5</v>
       </c>
       <c r="F6" s="4">
-        <f>2*F2</f>
-        <v>2</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <f>INT(0.5*H2)</f>
-        <v>20</v>
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -712,28 +682,23 @@
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
-        <f>3*C2</f>
-        <v>1500</v>
-      </c>
-      <c r="D7" s="6">
-        <v>20</v>
+      <c r="C7" s="4">
+        <v>500</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
       </c>
       <c r="E7" s="4">
-        <f>0.5*E2</f>
         <v>0.5</v>
       </c>
       <c r="F7" s="4">
-        <f>0.5*F2</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7" s="4">
-        <f>0.5*G2</f>
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="6">
-        <f>INT(2.5*H2)</f>
-        <v>100</v>
+        <v>5</v>
+      </c>
+      <c r="H7" s="4">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -743,27 +708,22 @@
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="6">
-        <f>1*C2</f>
+      <c r="C8" s="4">
         <v>500</v>
       </c>
-      <c r="D8" s="6">
-        <v>3</v>
+      <c r="D8" s="4">
+        <v>8</v>
       </c>
       <c r="E8" s="4">
-        <f>0.5*E2</f>
         <v>0.5</v>
       </c>
       <c r="F8" s="4">
-        <f>1*F2</f>
         <v>1</v>
       </c>
       <c r="G8" s="4">
-        <f>5*G2</f>
         <v>5</v>
       </c>
-      <c r="H8" s="6">
-        <f>INT(1*H2)</f>
+      <c r="H8" s="4">
         <v>40</v>
       </c>
     </row>
@@ -774,28 +734,23 @@
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="6">
-        <f>1*C2</f>
-        <v>500</v>
-      </c>
-      <c r="D9" s="6">
-        <v>8</v>
+      <c r="C9" s="4">
+        <v>5000</v>
+      </c>
+      <c r="D9" s="4">
+        <v>15</v>
       </c>
       <c r="E9" s="4">
-        <f>0.5*E2</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F9" s="4">
-        <f>1*F2</f>
         <v>1</v>
       </c>
       <c r="G9" s="4">
-        <f>5*G2</f>
-        <v>5</v>
-      </c>
-      <c r="H9" s="6">
-        <f>1*H2</f>
-        <v>40</v>
+        <v>3</v>
+      </c>
+      <c r="H9" s="4">
+        <v>800</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -805,28 +760,23 @@
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
-        <f>10*C2</f>
-        <v>5000</v>
-      </c>
-      <c r="D10" s="6">
-        <v>15</v>
+      <c r="C10" s="4">
+        <v>175</v>
+      </c>
+      <c r="D10" s="4">
+        <v>10</v>
       </c>
       <c r="E10" s="4">
-        <f>2*E2</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="4">
-        <f>1*F2</f>
         <v>1</v>
       </c>
       <c r="G10" s="4">
-        <f>3*G2</f>
-        <v>3</v>
-      </c>
-      <c r="H10" s="6">
-        <f>INT(20*H2)</f>
-        <v>800</v>
+        <v>10</v>
+      </c>
+      <c r="H10" s="4">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -836,28 +786,23 @@
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="6">
-        <f>0.35*C2</f>
-        <v>175</v>
-      </c>
-      <c r="D11" s="6">
-        <v>10</v>
+      <c r="C11" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="4">
+        <v>8</v>
       </c>
       <c r="E11" s="4">
-        <f>1*E2</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F11" s="4">
-        <f>1*F2</f>
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="G11" s="4">
-        <f>10*G2</f>
-        <v>10</v>
-      </c>
-      <c r="H11" s="6">
-        <f>INT(1.5*H2)</f>
-        <v>60</v>
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -867,27 +812,23 @@
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="6">
-        <f>2*C2</f>
-        <v>1000</v>
-      </c>
-      <c r="D12" s="6">
-        <v>8</v>
+      <c r="C12" s="4">
+        <v>500</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4</v>
       </c>
       <c r="E12" s="4">
-        <f>0.8*E2</f>
-        <v>0.8</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="F12" s="4">
-        <f>0.7*F2</f>
         <v>0.7</v>
       </c>
       <c r="G12" s="4">
-        <f>1*G2</f>
-        <v>1</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H12" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -897,28 +838,23 @@
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="6">
-        <f>1*C4</f>
-        <v>500</v>
-      </c>
-      <c r="D13" s="6">
-        <v>4</v>
+      <c r="C13" s="4">
+        <v>100</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3</v>
       </c>
       <c r="E13" s="4">
-        <f>0.8*E2</f>
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="F13" s="4">
-        <f>0.7*F4</f>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="G13" s="4">
-        <f>1*G2</f>
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
-        <f>INT(2.5*H2)</f>
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -928,27 +864,22 @@
       <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="6">
-        <f>0.2*C2</f>
-        <v>100</v>
-      </c>
-      <c r="D14" s="6">
-        <v>3</v>
+      <c r="C14" s="4">
+        <v>600</v>
+      </c>
+      <c r="D14" s="4">
+        <v>8</v>
       </c>
       <c r="E14" s="4">
-        <f>2*E2</f>
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="F14" s="4">
-        <f>1*F2</f>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G14" s="4">
-        <f>1*G2</f>
-        <v>1</v>
-      </c>
-      <c r="H14" s="6">
-        <f>INT(4*H2)</f>
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
         <v>160</v>
       </c>
     </row>
@@ -959,58 +890,22 @@
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="6">
-        <f>1.2*C2</f>
-        <v>600</v>
-      </c>
-      <c r="D15" s="6">
-        <v>8</v>
+      <c r="C15" s="4">
+        <v>150</v>
+      </c>
+      <c r="D15" s="4">
+        <v>10</v>
       </c>
       <c r="E15" s="4">
-        <f>0.8*E2</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="F15" s="4">
-        <f>1.2*F2</f>
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="4">
-        <f>1*G2</f>
-        <v>1</v>
-      </c>
-      <c r="H15" s="6">
-        <f>INT(4*H2)</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="6">
-        <f>0.3*C2</f>
-        <v>150</v>
-      </c>
-      <c r="D16" s="6">
         <v>10</v>
       </c>
-      <c r="E16" s="4">
-        <f>1*E2</f>
-        <v>1</v>
-      </c>
-      <c r="F16" s="4">
-        <f>1*F2</f>
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <f>10*G2</f>
-        <v>10</v>
-      </c>
-      <c r="H16" s="6">
-        <f>INT(3*H2)</f>
+      <c r="H15" s="4">
         <v>120</v>
       </c>
     </row>
